--- a/medicine/Mort/La_Petite_Mort_(web-série)/La_Petite_Mort_(web-série).xlsx
+++ b/medicine/Mort/La_Petite_Mort_(web-série)/La_Petite_Mort_(web-série).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>La_Petite_Mort_(web-s%C3%A9rie)</t>
+          <t>La_Petite_Mort_(web-série)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Petite Mort est une web-série française créée en octobre 2017 par Davy Mourier, adaptée de la série de bande dessinée du même nom du même auteur.
-Animée par ordinateur en deux dimensions, la première saison de la série compte dix épisodes de 4 minutes et 30 secondes[1]. Les deux saisons suivantes, de onze et dix épisodes, sont diffusées de 2019 à 2020.
+Animée par ordinateur en deux dimensions, la première saison de la série compte dix épisodes de 4 minutes et 30 secondes. Les deux saisons suivantes, de onze et dix épisodes, sont diffusées de 2019 à 2020.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>La_Petite_Mort_(web-s%C3%A9rie)</t>
+          <t>La_Petite_Mort_(web-série)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Petite Mort raconte l'histoire du fils de la Mort en personne, nommé Petite Mort, qui emménage dans une nouvelle ville pour entamer une « nouvelle non-vie ». Entre les examens pour devenir faucheur, l'amour d'une fille mystérieuse et un nouvel ami aussi bête que gentil, son quotidien risque d'être bien rempli !
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>La_Petite_Mort_(web-s%C3%A9rie)</t>
+          <t>La_Petite_Mort_(web-série)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : La Petite Mort
 Création : Davy Mourier
@@ -564,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>La_Petite_Mort_(web-s%C3%A9rie)</t>
+          <t>La_Petite_Mort_(web-série)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -582,17 +598,88 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section proviennent du générique de fin de l'œuvre audiovisuelle présentée ici.
-Personnages principaux
-Brigitte Lecordier : Petite Mort (saisons 1 à 3), Bébé Mort (saison 3)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>La_Petite_Mort_(web-série)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Personnages principaux</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Brigitte Lecordier : Petite Mort (saisons 1 à 3), Bébé Mort (saison 3)
 Simon Astier : Papa Mort (saisons 1 et 2)
 Constance : Maman Mort (saisons 1 et 2)
 Kaycie Chase : Ludovic enfant (saisons 1 à 3), Nouvelle Maman Mort (saison 3)
-Gérard Surugue : Pépé Mort (saisons 2 et 3)
-Personnages secondaires
-Benoît Allemane : Le Grand Tout
+Gérard Surugue : Pépé Mort (saisons 2 et 3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>La_Petite_Mort_(web-série)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Personnages secondaires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Benoît Allemane : Le Grand Tout
 Brigitte Lecordier : Caruso
 Kaycie Chase : Nicolas (saison 1), Manon et voix secondaires (saison 2)
 Monsieur Poulpe : Hans
@@ -608,71 +695,162 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>La_Petite_Mort_(web-s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>La_Petite_Mort_(web-série)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Saison 1
-Épisode 1
-La famille Mort emménage dans une nouvelle maison, dans une nouvelle ville. Tandis que Maman Mort range les cartons, Papa mort emmène son fils pour lui montrer le métier de faucheur en fauchant 3 humains. Petite Mort rencontre ensuite une fille dont il tombe amoureux et qu'il prénomme "Bernard".
-Épisode 2
-Papa Mort fauche une vielle dame qui participe au jeu télé-réalité "Les Archanges 13" (contrefaçon de "Les Anges 13"). Petite Mort va à l'école avec un sac "Hello Kittu" (contrefaçon de la marque "Hello Kitty") pour la première fois, et "Bernard" est dans sa classe. On apprend ensuite qu'elle s'appelle Audrey. Petite Mort devient ensuite ami avec Ludo, enfant dont Petite Mort connait la raison de sa mort prochaine (Une leucémie).
-Épisode 3
-Tandis que Papa Mort fauche une humaine, les camarades de Petite Mort lui propose de faire Halloween avec eux. Sa mère refuse en prétextant qu'il doit passer un examen. Examen qui s'intitule "Fauche imaginaire" dirigé par Hans, obligatoire pour passer en "Fauche accompagné" (dérivé de "conduite accompagné"). L'examen commence par un quiz, puis par une simulation, où Petite Mort doit faucher un "Escargot Ninja" (contrefaçon des Tortue Ninja), puis "Charlie". Petite Mort décroche la médaille de "Fauche Accompagné".
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Épisode 1</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Mort emménage dans une nouvelle maison, dans une nouvelle ville. Tandis que Maman Mort range les cartons, Papa mort emmène son fils pour lui montrer le métier de faucheur en fauchant 3 humains. Petite Mort rencontre ensuite une fille dont il tombe amoureux et qu'il prénomme "Bernard".
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>La_Petite_Mort_(web-s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>La_Petite_Mort_(web-série)</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Épisode 2</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papa Mort fauche une vielle dame qui participe au jeu télé-réalité "Les Archanges 13" (contrefaçon de "Les Anges 13"). Petite Mort va à l'école avec un sac "Hello Kittu" (contrefaçon de la marque "Hello Kitty") pour la première fois, et "Bernard" est dans sa classe. On apprend ensuite qu'elle s'appelle Audrey. Petite Mort devient ensuite ami avec Ludo, enfant dont Petite Mort connait la raison de sa mort prochaine (Une leucémie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>La_Petite_Mort_(web-série)</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Résumé</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Saison 1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Épisode 3</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tandis que Papa Mort fauche une humaine, les camarades de Petite Mort lui propose de faire Halloween avec eux. Sa mère refuse en prétextant qu'il doit passer un examen. Examen qui s'intitule "Fauche imaginaire" dirigé par Hans, obligatoire pour passer en "Fauche accompagné" (dérivé de "conduite accompagné"). L'examen commence par un quiz, puis par une simulation, où Petite Mort doit faucher un "Escargot Ninja" (contrefaçon des Tortue Ninja), puis "Charlie". Petite Mort décroche la médaille de "Fauche Accompagné".
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>La_Petite_Mort_(web-série)</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Épisodes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Saison 1 (2017)
-Une nouvelle vie, 22 octobre 2017
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Saison 1 (2017)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Une nouvelle vie, 22 octobre 2017
 Une nouvelle classe, 29 octobre 2017
 Un nouvel Halloween, 5 novembre 2017
 Une nouvelle Lune, 12 novembre 2017
@@ -681,9 +859,43 @@
 Une nouvelle question, 3 décembre 2017
 Une nouvelle merveille du monde, 10 décembre 2017
 Une terrible nouvelle, 17 décembre 2017
-Une nouvelle mort, 24 décembre 2017
-Saison 2 (2019)
-Une nouvelle saison, 18 avril 2019
+Une nouvelle mort, 24 décembre 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>La_Petite_Mort_(web-série)</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Saison 2 (2019)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Une nouvelle saison, 18 avril 2019
 Une nouvelle découverte, 18 avril 2019
 Une nouvelle angoisse, 2 mai 2019
 Un nouveau chat, 18 avril 2019
@@ -693,9 +905,43 @@
 Un nouvel amour, 24 mai 2019
 Le Nouveau Romantisme, 24 mai 2019
 Une nouvelle fin, 13 juin 2019
-Avant La Petite Mort, 18 décembre 2019
-Saison 3 (2019-2020)
-La Nouvelle Mort, 19 décembre 2019
+Avant La Petite Mort, 18 décembre 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>La_Petite_Mort_(web-série)</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Épisodes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Saison 3 (2019-2020)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>La Nouvelle Mort, 19 décembre 2019
 La Nouvelle Routine, 19 décembre 2019
 C'est pas une nouvelle vie, 19 décembre 2019
 La Nouvelle, 19 décembre 2019
@@ -708,35 +954,37 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>La_Petite_Mort_(web-s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>La_Petite_Mort_(web-série)</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/La_Petite_Mort_(web-s%C3%A9rie)</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'adaptation de la série est dévoilée en novembre 2016[2].
-Le 26 mars 2019 Davy Mourier annonce sur sa chaîne YouTube la sortie de la deuxième saison de la série pour le mois d'avril 2019[3]. Elle réalise 4,7 millions de vues en cumulé[4].
-La saison 3, diffusée en 2019 et en 2020, est composée de dix épisodes de 4 min 30 s[4].
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'adaptation de la série est dévoilée en novembre 2016.
+Le 26 mars 2019 Davy Mourier annonce sur sa chaîne YouTube la sortie de la deuxième saison de la série pour le mois d'avril 2019. Elle réalise 4,7 millions de vues en cumulé.
+La saison 3, diffusée en 2019 et en 2020, est composée de dix épisodes de 4 min 30 s.
 </t>
         </is>
       </c>
